--- a/data/trans_dic/P39A5_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P39A5_2023-Habitat-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.8548099119479411</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8660255431540158</v>
+        <v>0.8660255431540157</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8455079814277054</v>
+        <v>0.848660585706992</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8284261708852902</v>
+        <v>0.8309751964797474</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8476541937468641</v>
+        <v>0.8468537887210056</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9015489786127483</v>
+        <v>0.8997966069435797</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8764043741577714</v>
+        <v>0.8776348538033693</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8829379150010326</v>
+        <v>0.8817464822040265</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8468086778284367</v>
+        <v>0.8484964790905963</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8459747654643557</v>
+        <v>0.8470788320836874</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8546208459476813</v>
+        <v>0.8531558657295635</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8958921228357297</v>
+        <v>0.8987133170882172</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.885521343689438</v>
+        <v>0.8865154767498368</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8859786978102889</v>
+        <v>0.8860643090953818</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8387988661676171</v>
+        <v>0.838798866167617</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.8409928495396107</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.807960681279152</v>
+        <v>0.8080516265847349</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.816111309654825</v>
+        <v>0.8140837892552135</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8174766689557067</v>
+        <v>0.8192809110688511</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8701302592510467</v>
+        <v>0.8699823584816394</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8620688957541258</v>
+        <v>0.8628487655640396</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8582942036981195</v>
+        <v>0.8583296671592879</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.8788806305553628</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.8705896813878967</v>
+        <v>0.8705896813878968</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8745136165396952</v>
+        <v>0.8745136165396951</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8547633112871946</v>
+        <v>0.8535899412493425</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.851239842645065</v>
+        <v>0.8534305008306743</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8597449364768529</v>
+        <v>0.8606116215617307</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8986949176471628</v>
+        <v>0.9004234427221718</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8858183263651765</v>
+        <v>0.8868501897264844</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.886789624477235</v>
+        <v>0.8881914894522265</v>
       </c>
     </row>
     <row r="16">
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.8681568911304369</v>
+        <v>0.868156891130437</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.8600637469322802</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8539311461017167</v>
+        <v>0.8552229761276158</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.8489201348173728</v>
+        <v>0.8495084120068332</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.855163080192175</v>
+        <v>0.8561730892647238</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.8791863933439539</v>
+        <v>0.8809318385627999</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8692471783533861</v>
+        <v>0.8695512092903062</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8716839195108245</v>
+        <v>0.8720133636964554</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>513584</v>
+        <v>515499</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>527174</v>
+        <v>528796</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1054297</v>
+        <v>1053301</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>547624</v>
+        <v>546560</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>557705</v>
+        <v>558488</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1098182</v>
+        <v>1096700</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>803284</v>
+        <v>804885</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>836922</v>
+        <v>838014</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1656170</v>
+        <v>1653331</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>849844</v>
+        <v>852520</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>876045</v>
+        <v>877029</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1716938</v>
+        <v>1717104</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>603224</v>
+        <v>603292</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>623281</v>
+        <v>621732</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1234652</v>
+        <v>1237377</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>649640</v>
+        <v>649530</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>658379</v>
+        <v>658975</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1296300</v>
+        <v>1296353</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>785390</v>
+        <v>784312</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>870471</v>
+        <v>872711</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1669135</v>
+        <v>1670818</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>825756</v>
+        <v>827344</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>905831</v>
+        <v>906886</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1721641</v>
+        <v>1724362</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2750912</v>
+        <v>2755073</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>2896487</v>
+        <v>2898495</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>5672669</v>
+        <v>5679369</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2832271</v>
+        <v>2837894</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>2965843</v>
+        <v>2966880</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5782259</v>
+        <v>5784444</v>
       </c>
     </row>
     <row r="24">
